--- a/forms/app/cpn.xlsx
+++ b/forms/app/cpn.xlsx
@@ -639,7 +639,7 @@
     <t xml:space="preserve">Veuillez cocher le nombre de  CPN </t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(.,int(${_case_p_int_cpn}))+1</t>
+    <t xml:space="preserve">coalesce(.,string(${_case_p_int_cpn})) </t>
   </si>
   <si>
     <t xml:space="preserve">e_date_cpn_1</t>
@@ -3853,7 +3853,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">${</t>
     </r>
@@ -3863,7 +3862,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pev_femme</t>
     </r>
@@ -3873,7 +3871,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -4839,7 +4836,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This worksheet specifies all of the groups, questions, and other fields in your survey form, each in its own row. Aside from overall settings and lists of multiple-choice options, everything about your survey form is specified in this worksheet.
 For more help, see the following help topic: </t>
@@ -4851,7 +4847,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How do I design my form?</t>
     </r>
@@ -4902,7 +4897,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column specifies the type of the field or group. It has to follow a pre-specified format, and Excel's conditional formatting has been used to auto-highlight rows that appear to have a valid </t>
     </r>
@@ -4913,7 +4907,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">type</t>
     </r>
@@ -4923,7 +4916,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column -- so, if you are using Excel and your row is </t>
     </r>
@@ -4934,7 +4926,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">not</t>
     </r>
@@ -4944,7 +4935,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> automatically highlighted, re-check that you have entered the type properly. See below for an exhaustive list of brief examples.</t>
     </r>
@@ -4956,7 +4946,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column specifies the name of the field or group. Field names must be unique, and they cannot include any spaces or punctuation. Example: </t>
     </r>
@@ -4967,7 +4956,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">age</t>
     </r>
@@ -4979,7 +4967,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">For those field types that present a user interface, this column is where you put the primary text for the question or field. You can include line-breaks in your label text by pressing </t>
     </r>
@@ -4990,7 +4977,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Alt+Enter </t>
     </r>
@@ -5000,7 +4986,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">on Windows or </t>
     </r>
@@ -5011,7 +4996,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Control+Option+Enter </t>
     </r>
@@ -5021,7 +5005,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">on a Mac.</t>
     </r>
@@ -5033,7 +5016,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5044,7 +5026,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">label:languagename</t>
     </r>
@@ -5054,7 +5035,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5065,7 +5045,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">label:tamil</t>
     </r>
@@ -5075,7 +5054,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide labels in an alternative language.</t>
     </r>
@@ -5087,7 +5065,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Text in this column, if any, will appear italicized beneath the field's label. You can include line-breaks in your hint text by pressing </t>
     </r>
@@ -5098,7 +5075,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Alt+Enter </t>
     </r>
@@ -5108,7 +5084,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">on Windows or </t>
     </r>
@@ -5119,7 +5094,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Control+Option+Enter </t>
     </r>
@@ -5129,7 +5103,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">on a Mac.</t>
     </r>
@@ -5141,7 +5114,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5152,7 +5124,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hint:languagename</t>
     </r>
@@ -5162,7 +5133,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5173,7 +5143,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hint:tamil</t>
     </r>
@@ -5183,7 +5152,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide hints in an alternative language.</t>
     </r>
@@ -5195,7 +5163,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">If you want to default the user's entry or selection for a given field, you can specify a number or some text in this column. 
 Alternatively, you can specify an expression for dynamically calculating the field's default entry or selection, in the </t>
@@ -5207,7 +5174,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">calculation </t>
     </r>
@@ -5217,7 +5183,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">column. See the following help topic for more details: </t>
     </r>
@@ -5228,7 +5193,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How can I provide default entries or selections for users filling out my form?</t>
     </r>
@@ -5238,7 +5202,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5250,7 +5213,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">For field types that allow multiple appearances, you can specify the appearance style in this column (e.g., </t>
     </r>
@@ -5261,7 +5223,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">quick</t>
     </r>
@@ -5271,7 +5232,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -5282,7 +5242,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">minimal</t>
     </r>
@@ -5292,7 +5251,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> for </t>
     </r>
@@ -5303,7 +5261,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">select_one</t>
     </r>
@@ -5313,7 +5270,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> fields). See the individual examples below.</t>
     </r>
@@ -5325,7 +5281,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter an expression into this column to validate entered or selected values. The user will only be allowed to proceed to the next question when the expression evaluates to true. Use the </t>
     </r>
@@ -5336,7 +5291,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">constraint builder </t>
     </r>
@@ -5346,7 +5300,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">to build new constraint expressions. (Also see the expression quick-reference following the examples below.) Example: </t>
     </r>
@@ -5357,7 +5310,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. &lt; 130</t>
     </r>
@@ -5372,7 +5324,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5383,7 +5334,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">constraint message:languagename</t>
     </r>
@@ -5393,7 +5343,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5404,7 +5353,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">constraint message:tamil</t>
     </r>
@@ -5414,7 +5362,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide constraint messages in an alternative language.</t>
     </r>
@@ -5426,7 +5373,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter an expression into this column to control when a field or group displays to the user (i.e., to control when it is "relevant"). The field or group will only show up to users when the expression in this column evaluates to true; otherwise, it will remain hidden. Use the </t>
     </r>
@@ -5437,7 +5383,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">relevance builder </t>
     </r>
@@ -5447,7 +5392,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">to build new relevance expressions. (Also see the expression quick-reference following the examples below.) Example: </t>
     </r>
@@ -5458,7 +5402,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">${age} &lt; 18</t>
     </r>
@@ -5470,7 +5413,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -5481,7 +5423,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -5491,7 +5432,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> into this column to temporarily disable a field. (Rarely used.)</t>
     </r>
@@ -5503,7 +5443,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -5514,7 +5453,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -5524,7 +5462,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> into this column to require that users enter or select a value before continuing.</t>
     </r>
@@ -5539,7 +5476,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5550,7 +5486,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required message:languagename</t>
     </r>
@@ -5560,7 +5495,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5571,7 +5505,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required message:tamil</t>
     </r>
@@ -5581,7 +5514,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide required messages in an alternative language.</t>
     </r>
@@ -5593,7 +5525,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -5604,7 +5535,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -5614,7 +5544,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> into this column to make it read-only (a user can see the field, but cannot enter or select a value). (Rarely used, because </t>
     </r>
@@ -5625,7 +5554,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">note</t>
     </r>
@@ -5635,7 +5563,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> fields, which are by nature read-only, are automatically read-only regardless of what is specified here.)</t>
     </r>
@@ -5647,7 +5574,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column specifies the expression to use for a </t>
     </r>
@@ -5658,7 +5584,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">calculate</t>
     </r>
@@ -5668,7 +5593,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> field, or the expression to use for calculating the default entry or selection for a visible form field. Use the </t>
     </r>
@@ -5679,7 +5603,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">calculation builder </t>
     </r>
@@ -5689,7 +5612,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">to build new calculation expressions. (Also see the expression quick-reference following the examples below.)</t>
     </r>
@@ -5701,7 +5623,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">For a </t>
     </r>
@@ -5712,7 +5633,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">begin repeat</t>
     </r>
@@ -5722,7 +5642,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> row, this column can specify the number of times to repeat the group of questions. (Can be a fixed count like </t>
     </r>
@@ -5733,7 +5652,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -5743,7 +5661,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> or a reference to an earlier field like </t>
     </r>
@@ -5754,7 +5671,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">${numhh_members}</t>
     </r>
@@ -5764,7 +5680,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.)</t>
     </r>
@@ -5776,7 +5691,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To include an image to display for a field (in addition to or in lieu of its label), its filename should be specified here (and the file should be uploaded with this form defintion). Which media file formats are supported will depend on your Android device, but all devices support common image formats like .jpg or .png. Example: </t>
     </r>
@@ -5787,7 +5701,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">paddy.png</t>
     </r>
@@ -5799,7 +5712,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To include a sound clip that can be played at a field, its filename should be specified here (and the file should be uploaded with this form defintion). Which media file formats are supported will depend on your Android device. Example: </t>
     </r>
@@ -5810,7 +5722,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">explanation.3gpp</t>
     </r>
@@ -5822,7 +5733,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To include a video clip that can be played at a field, its filename should be specified here (and the file should be uploaded with this form defintion). Which media file formats are supported will depend on your Android device. Example: </t>
     </r>
@@ -5833,7 +5743,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">demonstration.mp4</t>
     </r>
@@ -5845,7 +5754,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5856,7 +5764,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media:image:languagename</t>
     </r>
@@ -5866,7 +5773,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5877,7 +5783,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media:image:tamil</t>
     </r>
@@ -5887,7 +5792,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide images for an alternative language.</t>
     </r>
@@ -5899,7 +5803,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5910,7 +5813,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media:audio:languagename</t>
     </r>
@@ -5920,7 +5822,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5931,7 +5832,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media:audio:tamil</t>
     </r>
@@ -5941,7 +5841,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide audio clips for an alternative language.</t>
     </r>
@@ -5953,7 +5852,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -5964,7 +5862,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media:video:languagename</t>
     </r>
@@ -5974,7 +5871,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -5985,7 +5881,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">media:video:tamil</t>
     </r>
@@ -5995,7 +5890,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide video clips for an alternative language.</t>
     </r>
@@ -6007,7 +5901,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When filtering lists of multiple-choice options, this column specifies, for each field, which prior field should be used when filtering the list of options. For more details, see the following help topic: </t>
     </r>
@@ -6018,7 +5911,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How can I filter the list of multiple-choice options presented to users?</t>
     </r>
@@ -6028,7 +5920,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Example: </t>
     </r>
@@ -6039,7 +5930,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">filter=${survey_region}</t>
     </r>
@@ -6054,7 +5944,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column can specify optional text or symbols to appear in the response area to the right of questions in printable versions of the survey form. For a text field, for example, you might put something like </t>
     </r>
@@ -6065,7 +5954,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">|___|___|</t>
     </r>
@@ -6075,7 +5963,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> if you are looking for two letters or numbers; or, for a checkbox, you might put a hollow square like </t>
     </r>
@@ -6086,7 +5973,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">□</t>
     </r>
@@ -6096,7 +5982,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (this is a special HTML character: enter "</t>
     </r>
@@ -6107,7 +5992,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&amp;#9633;</t>
     </r>
@@ -6117,7 +6001,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">", without quotes, into this column); finally, for a radio button, you might simply enter a capital </t>
     </r>
@@ -6128,7 +6011,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">O</t>
     </r>
@@ -6138,7 +6020,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -6150,7 +6031,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter </t>
     </r>
@@ -6161,7 +6041,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yes</t>
     </r>
@@ -6171,7 +6050,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> into this column to indicate that a field in an encrypted form should be left unencrypted so that it can be published to one or more datasets. Use only for non-sensitive fields that can be left unencrypted without compromising data security. (This field is ignored for unencrypted forms.)</t>
     </r>
@@ -6183,7 +6061,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enter a number of seconds that represents the minimum time enumerators should spend the first time they view the field. This represents a "speed limit" that can be enforced by Collect (with the </t>
     </r>
@@ -6194,7 +6071,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Enforce minimum times for fields</t>
     </r>
@@ -6204,7 +6080,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> option within Collect's </t>
     </r>
@@ -6215,7 +6090,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Admin Settings</t>
     </r>
@@ -6225,7 +6099,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">); alternatively, you can track violations with the following field types: "speed violations count", "speed violations list", and "speed violations audit" (see examples for these field types below). </t>
     </r>
@@ -6238,7 +6111,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Examples</t>
     </r>
@@ -6248,7 +6120,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (scroll right for appearance styles)</t>
     </r>
@@ -7022,7 +6893,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This worksheet is for the configuration of option lists for your multiple-choice questions. For regular option lists, all possible options will be listed here, one option per row. For option lists that will be dynamically loaded from a pre-loaded .csv file, there will be a single row that indicates from which .csv columns to load the option values, labels, and images (see the following help topic: </t>
     </r>
@@ -7033,7 +6903,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How do I dynamically load multiple-choice options from pre-loaded data?</t>
     </r>
@@ -7043,7 +6912,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">).</t>
     </r>
@@ -7058,7 +6926,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column specifies the name of a multiple-choice question type (without any spaces or punctuation). A given list of options will involve multiple rows, each with the same </t>
     </r>
@@ -7069,7 +6936,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">list_name</t>
     </r>
@@ -7079,7 +6945,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Example: </t>
     </r>
@@ -7090,7 +6955,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">yesno</t>
     </r>
@@ -7102,7 +6966,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column specifies the internal value stored for a given choice. (It should really be called "value" rather than "name".) Example: </t>
     </r>
@@ -7113,7 +6976,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -7124,9 +6986,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name from which to load option values.</t>
+      <t xml:space="preserve">
+If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name from which to load option values.</t>
     </r>
   </si>
   <si>
@@ -7136,7 +6998,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This column specifies the label to use for a given choice, in the form's default language. Example: </t>
     </r>
@@ -7147,7 +7008,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Yes
 </t>
@@ -7158,9 +7018,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name -- or comma-separated list of column names -- from which to load option labels for the default language.</t>
+      <t xml:space="preserve">
+If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name -- or comma-separated list of column names -- from which to load option labels for the default language.</t>
     </r>
   </si>
   <si>
@@ -7170,7 +7030,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To include an image to display for an option, its filename should be specified here (and the file should be uploaded with this form defintion). Which media file formats are supported will depend on your Android device, but all devices support common image formats like .jpg or .png. Example: </t>
     </r>
@@ -7181,7 +7040,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">paddy.png
 </t>
@@ -7192,9 +7050,9 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name from which to load image filenames.</t>
+      <t xml:space="preserve">
+If dynamically loading from a pre-loaded .csv file, this should instead be the .csv column name from which to load image filenames.</t>
     </r>
   </si>
   <si>
@@ -7204,7 +7062,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any </t>
     </r>
@@ -7215,7 +7072,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">label:languagename</t>
     </r>
@@ -7225,7 +7081,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column (e.g., </t>
     </r>
@@ -7236,7 +7091,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">label:tamil</t>
     </r>
@@ -7246,7 +7100,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) may be added in order to provide images in an alternative language.</t>
     </r>
@@ -7258,7 +7111,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">To filter the list of options displayed, a filter value can be specified here, along with a filter expression in the </t>
     </r>
@@ -7269,7 +7121,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">choice_filter</t>
     </r>
@@ -7279,7 +7130,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column of the </t>
     </r>
@@ -7290,7 +7140,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">survey</t>
     </r>
@@ -7300,7 +7149,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> worksheet. For example, you might have </t>
     </r>
@@ -7311,7 +7159,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">filter</t>
     </r>
@@ -7321,7 +7168,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> values like </t>
     </r>
@@ -7332,7 +7178,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">LAC</t>
     </r>
@@ -7342,7 +7187,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and a </t>
     </r>
@@ -7353,7 +7197,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">choice_filter</t>
     </r>
@@ -7363,7 +7206,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> like </t>
     </r>
@@ -7374,7 +7216,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">filter=${survey_region}</t>
     </r>
@@ -7384,7 +7225,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. For more details, see the following help topic: </t>
     </r>
@@ -7395,7 +7235,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How can I filter the list of multiple-choice options presented to users?</t>
     </r>
@@ -7413,7 +7252,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This is the title of your form. If you begin this title with. </t>
     </r>
@@ -7424,7 +7262,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">TEST - </t>
     </r>
@@ -7434,7 +7271,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(as in "TEST - Household listing survey"), it will not appear by default to users (see the following help topic): </t>
     </r>
@@ -7445,7 +7281,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How can I prevent forms from appearing until after I am finished testing them?</t>
     </r>
@@ -7455,7 +7290,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">).</t>
     </r>
@@ -7467,7 +7301,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This is the unique ID that will identify the form. While the form title can have spaces and can be changed from time to time, the form ID must not contain spaces and must remain fixed for the life of the form. The form ID must also begin with a letter, and it can only include letters, numbers, underscores, and hyphens (no other punctuation or special characters). Example: </t>
     </r>
@@ -7478,7 +7311,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hhlisting_round1</t>
     </r>
@@ -7493,7 +7325,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This is the public key with which to encrypt all form submissions. See the following help topic for details: </t>
     </r>
@@ -7504,7 +7335,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How do I encrypt my data?</t>
     </r>
@@ -7516,7 +7346,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This is the submission URL to use when submitting encrypted forms. See the following help topic for details: </t>
     </r>
@@ -7527,7 +7356,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How do I encrypt my data?</t>
     </r>
@@ -7539,7 +7367,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This is the name of the language associated with labels, images, and other content when no other language is specified. For example, the </t>
     </r>
@@ -7550,7 +7377,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">label:french </t>
     </r>
@@ -7560,7 +7386,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">column is clearly in French, but the </t>
     </r>
@@ -7571,7 +7396,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">label</t>
     </r>
@@ -7581,7 +7405,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> column, which will display by default, is in an unknown language. Put the name of that default language here. See the following help topic for details: </t>
     </r>
@@ -7592,7 +7415,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">How do I translate my form into multiple languages?</t>
     </r>
@@ -7610,13 +7432,12 @@
     <numFmt numFmtId="168" formatCode="d\-mmm"/>
     <numFmt numFmtId="169" formatCode="0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7637,21 +7458,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <b val="true"/>
@@ -7659,14 +7471,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -7674,21 +7484,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -7696,26 +7503,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -7723,14 +7521,12 @@
       <color rgb="FFD0121A"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -7738,7 +7534,6 @@
       <color rgb="FF0000D4"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -7747,7 +7542,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -7755,7 +7549,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -7763,7 +7556,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -7771,14 +7563,12 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -8020,7 +7810,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8030,11 +7820,11 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -8047,7 +7837,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8063,35 +7853,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8099,7 +7889,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8107,19 +7897,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8131,11 +7921,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8143,19 +7933,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8167,15 +7957,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8195,11 +7985,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8211,23 +8001,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8235,7 +8025,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8243,19 +8033,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8275,7 +8065,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8283,7 +8073,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8319,15 +8109,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8347,15 +8137,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8367,15 +8157,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8427,7 +8217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8439,23 +8229,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8467,7 +8257,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8479,7 +8269,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8515,7 +8305,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8531,19 +8321,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8555,11 +8345,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8567,11 +8357,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8617,6 +8407,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD44B"/>
@@ -8624,6 +8420,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFBB57"/>
@@ -8631,6 +8433,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFCD5B5"/>
@@ -8638,6 +8446,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDCE6F2"/>
@@ -8645,6 +8459,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF99BCE7"/>
@@ -8652,6 +8472,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEBF1DE"/>
@@ -8659,6 +8485,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6969"/>
@@ -8666,6 +8498,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE7D480"/>
@@ -8673,6 +8511,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDDE8C6"/>
@@ -8680,6 +8524,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE3E0CF"/>
@@ -8687,6 +8537,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFBFB00"/>
@@ -8694,6 +8550,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCC1DA"/>
@@ -8701,6 +8563,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2DBDA"/>
@@ -8708,6 +8576,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFBA005D"/>
@@ -8716,7 +8590,10 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
       </font>
       <fill>
         <patternFill>
@@ -8725,6 +8602,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF9E004F"/>
@@ -8732,6 +8615,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE1AAA9"/>
@@ -8739,6 +8628,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB3A2C7"/>
@@ -8746,6 +8641,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE4E300"/>
@@ -8753,6 +8654,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDCC97A"/>
@@ -8760,6 +8667,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC3D69B"/>
@@ -8767,6 +8680,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC4BD97"/>
@@ -8774,6 +8693,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -8781,6 +8706,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2F2F2"/>
@@ -8788,6 +8719,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFD7E4BD"/>
@@ -8795,6 +8732,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF4685D2"/>
@@ -8802,6 +8745,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB9CDE5"/>
@@ -8809,6 +8758,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAC090"/>
@@ -8816,6 +8771,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -8823,6 +8784,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -8830,13 +8797,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -8845,7 +8811,23 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
       </font>
       <fill>
         <patternFill>
@@ -8855,7 +8837,10 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
       </font>
       <fill>
         <patternFill>
@@ -8864,6 +8849,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF9E004F"/>
@@ -8871,6 +8862,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE1AAA9"/>
@@ -8878,6 +8875,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB3A2C7"/>
@@ -8885,6 +8888,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE4E300"/>
@@ -8892,6 +8901,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDCC97A"/>
@@ -8899,6 +8914,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC3D69B"/>
@@ -8906,6 +8927,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC4BD97"/>
@@ -8913,6 +8940,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -8920,6 +8953,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2F2F2"/>
@@ -8927,6 +8966,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFD7E4BD"/>
@@ -8934,6 +8979,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF4685D2"/>
@@ -8941,6 +8992,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB9CDE5"/>
@@ -8948,6 +9005,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAC090"/>
@@ -8955,6 +9018,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -8962,6 +9031,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -8969,6 +9044,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -8976,6 +9057,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -8983,6 +9070,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD44B"/>
@@ -8990,6 +9083,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFBB57"/>
@@ -8997,6 +9096,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEBF1DE"/>
@@ -9004,6 +9109,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE7D480"/>
@@ -9011,6 +9122,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDDE8C6"/>
@@ -9018,6 +9135,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE3E0CF"/>
@@ -9025,6 +9148,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFCCC1DA"/>
@@ -9032,6 +9161,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2DBDA"/>
@@ -9039,6 +9174,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFBA005D"/>
@@ -9046,6 +9187,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDCE6F2"/>
@@ -9053,6 +9200,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF99BCE7"/>
@@ -9061,7 +9214,10 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
       </font>
       <fill>
         <patternFill>
@@ -9070,6 +9226,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF9E004F"/>
@@ -9077,6 +9239,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE1AAA9"/>
@@ -9084,6 +9252,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB3A2C7"/>
@@ -9091,6 +9265,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE4E300"/>
@@ -9098,6 +9278,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDCC97A"/>
@@ -9105,6 +9291,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC3D69B"/>
@@ -9112,6 +9304,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC4BD97"/>
@@ -9119,6 +9317,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -9126,6 +9330,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2F2F2"/>
@@ -9133,6 +9343,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFD7E4BD"/>
@@ -9140,6 +9356,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF4685D2"/>
@@ -9147,6 +9369,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB9CDE5"/>
@@ -9154,6 +9382,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAC090"/>
@@ -9161,6 +9395,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -9168,6 +9408,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -9175,13 +9421,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -9190,7 +9435,23 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
         <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
       </font>
       <fill>
         <patternFill>
@@ -9199,6 +9460,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF9E004F"/>
@@ -9206,6 +9473,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE1AAA9"/>
@@ -9213,6 +9486,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB3A2C7"/>
@@ -9220,6 +9499,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFE4E300"/>
@@ -9227,6 +9512,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDCC97A"/>
@@ -9234,6 +9525,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC3D69B"/>
@@ -9241,6 +9538,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC4BD97"/>
@@ -9248,6 +9551,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -9255,6 +9564,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2F2F2"/>
@@ -9262,6 +9577,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFD7E4BD"/>
@@ -9269,6 +9590,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF4685D2"/>
@@ -9276,6 +9603,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB9CDE5"/>
@@ -9283,6 +9616,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFAC090"/>
@@ -9290,6 +9629,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -9297,6 +9642,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -9304,6 +9655,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -9311,6 +9668,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -9400,14 +9763,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ1502"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
-      <selection pane="bottomRight" activeCell="P94" activeCellId="0" sqref="P94"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="P66" activeCellId="0" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -17672,8 +18035,8 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
       <c r="P66" s="10" t="str">
-        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/cpn_",C66,"!='',",IF(ISERROR(SEARCH("date",C66)),"","date"),"(instance('contact-summary')/context/cpn_",C66,"),'')")</f>
-        <v>if(instance('contact-summary')/context/cpn_p_int_cpn!='',(instance('contact-summary')/context/cpn_p_int_cpn),'')</v>
+        <f aca="false">_xlfn.CONCAT("if(instance('contact-summary')/context/cpn_",C66,"!='',",IF(ISERROR(SEARCH("date",C66)),"","date"),"(instance('contact-summary')/context/cpn_",C66,"),'')+1")</f>
+        <v>if(instance('contact-summary')/context/cpn_p_int_cpn!='',(instance('contact-summary')/context/cpn_p_int_cpn),'')+1</v>
       </c>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
@@ -20423,7 +20786,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="152" s="30" customFormat="true" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="30" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="36" t="s">
         <v>58</v>
       </c>
@@ -26015,7 +26378,7 @@
       </c>
       <c r="P424" s="30"/>
     </row>
-    <row r="425" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>22</v>
       </c>
@@ -26060,7 +26423,7 @@
       </c>
       <c r="P427" s="30"/>
     </row>
-    <row r="428" customFormat="false" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>22</v>
       </c>
@@ -30019,7 +30382,7 @@
       <c r="Y590" s="64"/>
       <c r="Z590" s="64"/>
     </row>
-    <row r="591" s="65" customFormat="true" ht="143.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" s="65" customFormat="true" ht="143.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="55" t="s">
         <v>22</v>
       </c>
@@ -30127,7 +30490,7 @@
       <c r="Y593" s="64"/>
       <c r="Z593" s="64"/>
     </row>
-    <row r="594" s="65" customFormat="true" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" s="65" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="55" t="s">
         <v>22</v>
       </c>
@@ -30235,7 +30598,7 @@
       <c r="Y596" s="64"/>
       <c r="Z596" s="64"/>
     </row>
-    <row r="597" s="65" customFormat="true" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" s="65" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="55" t="s">
         <v>22</v>
       </c>
@@ -30343,7 +30706,7 @@
       <c r="Y599" s="64"/>
       <c r="Z599" s="64"/>
     </row>
-    <row r="600" s="65" customFormat="true" ht="129.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" s="65" customFormat="true" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="55" t="s">
         <v>22</v>
       </c>
@@ -30451,7 +30814,7 @@
       <c r="Y602" s="64"/>
       <c r="Z602" s="64"/>
     </row>
-    <row r="603" s="65" customFormat="true" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" s="65" customFormat="true" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="55" t="s">
         <v>22</v>
       </c>
@@ -30515,7 +30878,7 @@
       <c r="Y604" s="64"/>
       <c r="Z604" s="64"/>
     </row>
-    <row r="605" s="65" customFormat="true" ht="72.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" s="65" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="55" t="s">
         <v>22</v>
       </c>
@@ -30551,7 +30914,7 @@
       <c r="Y605" s="64"/>
       <c r="Z605" s="64"/>
     </row>
-    <row r="606" s="65" customFormat="true" ht="72.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" s="65" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="55" t="s">
         <v>22</v>
       </c>
@@ -30587,7 +30950,7 @@
       <c r="Y606" s="57"/>
       <c r="Z606" s="57"/>
     </row>
-    <row r="607" s="65" customFormat="true" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" s="65" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="55" t="s">
         <v>22</v>
       </c>
@@ -56452,565 +56815,18 @@
       <c r="Z1502" s="1"/>
       <c r="AA1502" s="1"/>
     </row>
-    <row r="1048030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M230:M238 M244:M250 M253 M255:M268 M275:M276 M279:M296 M304:M305 M307:M308" type="list">
-      <formula1>choices!$C$5:$C$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A12:A16 A524:A532 A616:A619" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A12:A16 A524:A532 A616:A619" type="list">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J12:J16 J524:J532 J616:J617" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J12:J16 J524:J532 J616:J617" type="list">
       <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M230:M238 M244:M250 M253 M255:M268 M275:M276 M279:M296 M304:M305 M307:M308" type="list">
+      <formula1>choices!$C$5:$C$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -57029,17 +56845,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H396"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
-      <selection pane="bottomRight" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="81" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="81" width="19.75"/>
@@ -60371,65 +60187,9 @@
       <c r="C340" s="85"/>
       <c r="F340" s="31"/>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B21" type="list">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B21" type="list">
       <formula1>$C$5:$C$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -60458,7 +60218,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.25"/>
@@ -60500,7 +60260,7 @@
       </c>
       <c r="C2" s="81" t="str">
         <f aca="true">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304241602</v>
+        <v>2304252327</v>
       </c>
       <c r="D2" s="102"/>
       <c r="E2" s="103"/>
@@ -60533,7 +60293,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="36"/>
@@ -60546,7 +60306,7 @@
       </c>
       <c r="B1" s="104"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
     </row>
@@ -60648,7 +60408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="109" customFormat="true" ht="189" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="109" customFormat="true" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="108" t="s">
         <v>1526</v>
       </c>
@@ -60740,7 +60500,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="8" s="113" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="113" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="110" t="s">
         <v>1556</v>
       </c>
@@ -60774,7 +60534,7 @@
       <c r="AC8" s="112"/>
       <c r="AD8" s="112"/>
     </row>
-    <row r="10" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="114" t="s">
         <v>278</v>
       </c>
@@ -60812,7 +60572,7 @@
       <c r="AC10" s="114"/>
       <c r="AD10" s="114"/>
     </row>
-    <row r="11" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="114" t="s">
         <v>278</v>
       </c>
@@ -60852,7 +60612,7 @@
       <c r="AC11" s="114"/>
       <c r="AD11" s="114"/>
     </row>
-    <row r="12" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="114" t="s">
         <v>321</v>
       </c>
@@ -60890,7 +60650,7 @@
       <c r="AC12" s="114"/>
       <c r="AD12" s="114"/>
     </row>
-    <row r="13" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="114" t="s">
         <v>256</v>
       </c>
@@ -60928,7 +60688,7 @@
       <c r="AC13" s="114"/>
       <c r="AD13" s="114"/>
     </row>
-    <row r="14" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="114" t="s">
         <v>1563</v>
       </c>
@@ -60966,7 +60726,7 @@
       <c r="AC14" s="114"/>
       <c r="AD14" s="114"/>
     </row>
-    <row r="15" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61006,7 +60766,7 @@
       <c r="AC15" s="114"/>
       <c r="AD15" s="114"/>
     </row>
-    <row r="16" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61046,7 +60806,7 @@
       <c r="AC16" s="114"/>
       <c r="AD16" s="114"/>
     </row>
-    <row r="17" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61086,7 +60846,7 @@
       <c r="AC17" s="114"/>
       <c r="AD17" s="114"/>
     </row>
-    <row r="18" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61126,7 +60886,7 @@
       <c r="AC18" s="114"/>
       <c r="AD18" s="114"/>
     </row>
-    <row r="19" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61166,7 +60926,7 @@
       <c r="AC19" s="114"/>
       <c r="AD19" s="114"/>
     </row>
-    <row r="20" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61206,7 +60966,7 @@
       <c r="AC20" s="114"/>
       <c r="AD20" s="114"/>
     </row>
-    <row r="21" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61246,7 +61006,7 @@
       <c r="AC21" s="114"/>
       <c r="AD21" s="114"/>
     </row>
-    <row r="22" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61286,7 +61046,7 @@
       <c r="AC22" s="114"/>
       <c r="AD22" s="114"/>
     </row>
-    <row r="23" s="116" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="116" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61326,7 +61086,7 @@
       <c r="AC23" s="114"/>
       <c r="AD23" s="114"/>
     </row>
-    <row r="24" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61366,7 +61126,7 @@
       <c r="AC24" s="114"/>
       <c r="AD24" s="114"/>
     </row>
-    <row r="25" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61406,7 +61166,7 @@
       <c r="AC25" s="114"/>
       <c r="AD25" s="114"/>
     </row>
-    <row r="26" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61446,7 +61206,7 @@
       <c r="AC26" s="114"/>
       <c r="AD26" s="114"/>
     </row>
-    <row r="27" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61486,7 +61246,7 @@
       <c r="AC27" s="114"/>
       <c r="AD27" s="114"/>
     </row>
-    <row r="28" s="116" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="114" t="s">
         <v>1563</v>
       </c>
@@ -61526,7 +61286,7 @@
       <c r="AC28" s="114"/>
       <c r="AD28" s="114"/>
     </row>
-    <row r="29" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61564,7 +61324,7 @@
       <c r="AC29" s="114"/>
       <c r="AD29" s="114"/>
     </row>
-    <row r="30" s="116" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61604,7 +61364,7 @@
       <c r="AC30" s="114"/>
       <c r="AD30" s="114"/>
     </row>
-    <row r="31" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61644,7 +61404,7 @@
       <c r="AC31" s="114"/>
       <c r="AD31" s="114"/>
     </row>
-    <row r="32" s="116" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="116" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61684,7 +61444,7 @@
       <c r="AC32" s="114"/>
       <c r="AD32" s="114"/>
     </row>
-    <row r="33" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61724,7 +61484,7 @@
       <c r="AC33" s="114"/>
       <c r="AD33" s="114"/>
     </row>
-    <row r="34" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61764,7 +61524,7 @@
       <c r="AC34" s="114"/>
       <c r="AD34" s="114"/>
     </row>
-    <row r="35" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61804,7 +61564,7 @@
       <c r="AC35" s="114"/>
       <c r="AD35" s="114"/>
     </row>
-    <row r="36" s="116" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="116" customFormat="true" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61844,7 +61604,7 @@
       <c r="AC36" s="114"/>
       <c r="AD36" s="114"/>
     </row>
-    <row r="37" s="116" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="116" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="114" t="s">
         <v>1593</v>
       </c>
@@ -61884,7 +61644,7 @@
       <c r="AC37" s="114"/>
       <c r="AD37" s="114"/>
     </row>
-    <row r="38" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="114" t="s">
         <v>1603</v>
       </c>
@@ -61922,7 +61682,7 @@
       <c r="AC38" s="114"/>
       <c r="AD38" s="114"/>
     </row>
-    <row r="39" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="114" t="s">
         <v>1605</v>
       </c>
@@ -61960,7 +61720,7 @@
       <c r="AC39" s="114"/>
       <c r="AD39" s="114"/>
     </row>
-    <row r="40" s="116" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="114" t="s">
         <v>1607</v>
       </c>
@@ -61998,7 +61758,7 @@
       <c r="AC40" s="114"/>
       <c r="AD40" s="114"/>
     </row>
-    <row r="41" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="114" t="s">
         <v>1609</v>
       </c>
@@ -62036,7 +61796,7 @@
       <c r="AC41" s="114"/>
       <c r="AD41" s="114"/>
     </row>
-    <row r="42" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="114" t="s">
         <v>48</v>
       </c>
@@ -62074,7 +61834,7 @@
       <c r="AC42" s="114"/>
       <c r="AD42" s="114"/>
     </row>
-    <row r="43" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="114" t="s">
         <v>48</v>
       </c>
@@ -62114,7 +61874,7 @@
       <c r="AC43" s="114"/>
       <c r="AD43" s="114"/>
     </row>
-    <row r="44" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="114" t="s">
         <v>1614</v>
       </c>
@@ -62152,7 +61912,7 @@
       <c r="AC44" s="114"/>
       <c r="AD44" s="114"/>
     </row>
-    <row r="45" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="114" t="s">
         <v>1614</v>
       </c>
@@ -62192,7 +61952,7 @@
       <c r="AC45" s="114"/>
       <c r="AD45" s="114"/>
     </row>
-    <row r="46" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="114" t="s">
         <v>1617</v>
       </c>
@@ -62230,7 +61990,7 @@
       <c r="AC46" s="114"/>
       <c r="AD46" s="114"/>
     </row>
-    <row r="47" s="116" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="114" t="s">
         <v>1617</v>
       </c>
@@ -62270,7 +62030,7 @@
       <c r="AC47" s="114"/>
       <c r="AD47" s="114"/>
     </row>
-    <row r="48" s="116" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="114" t="s">
         <v>1617</v>
       </c>
@@ -62310,7 +62070,7 @@
       <c r="AC48" s="114"/>
       <c r="AD48" s="114"/>
     </row>
-    <row r="49" s="116" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="114" t="s">
         <v>1617</v>
       </c>
@@ -62350,7 +62110,7 @@
       <c r="AC49" s="114"/>
       <c r="AD49" s="114"/>
     </row>
-    <row r="50" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="114" t="s">
         <v>1625</v>
       </c>
@@ -62388,7 +62148,7 @@
       <c r="AC50" s="114"/>
       <c r="AD50" s="114"/>
     </row>
-    <row r="51" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="114" t="s">
         <v>1627</v>
       </c>
@@ -62426,7 +62186,7 @@
       <c r="AC51" s="114"/>
       <c r="AD51" s="114"/>
     </row>
-    <row r="52" s="116" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="116" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="114" t="s">
         <v>1629</v>
       </c>
@@ -62464,7 +62224,7 @@
       <c r="AC52" s="114"/>
       <c r="AD52" s="114"/>
     </row>
-    <row r="53" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="114" t="s">
         <v>22</v>
       </c>
@@ -62502,7 +62262,7 @@
       <c r="AC53" s="114"/>
       <c r="AD53" s="114"/>
     </row>
-    <row r="54" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="114" t="s">
         <v>1632</v>
       </c>
@@ -62538,7 +62298,7 @@
       <c r="AC54" s="114"/>
       <c r="AD54" s="114"/>
     </row>
-    <row r="55" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="114" t="s">
         <v>1633</v>
       </c>
@@ -62574,7 +62334,7 @@
       <c r="AC55" s="114"/>
       <c r="AD55" s="114"/>
     </row>
-    <row r="56" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="114" t="s">
         <v>1634</v>
       </c>
@@ -62610,7 +62370,7 @@
       <c r="AC56" s="114"/>
       <c r="AD56" s="114"/>
     </row>
-    <row r="57" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="114" t="s">
         <v>1635</v>
       </c>
@@ -62646,7 +62406,7 @@
       <c r="AC57" s="114"/>
       <c r="AD57" s="114"/>
     </row>
-    <row r="58" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="114" t="s">
         <v>1636</v>
       </c>
@@ -62682,7 +62442,7 @@
       <c r="AC58" s="114"/>
       <c r="AD58" s="114"/>
     </row>
-    <row r="59" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="114" t="s">
         <v>1637</v>
       </c>
@@ -62718,7 +62478,7 @@
       <c r="AC59" s="114"/>
       <c r="AD59" s="114"/>
     </row>
-    <row r="60" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="114" t="s">
         <v>1638</v>
       </c>
@@ -62754,7 +62514,7 @@
       <c r="AC60" s="114"/>
       <c r="AD60" s="114"/>
     </row>
-    <row r="61" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="114" t="s">
         <v>1639</v>
       </c>
@@ -62790,7 +62550,7 @@
       <c r="AC61" s="114"/>
       <c r="AD61" s="114"/>
     </row>
-    <row r="62" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="114" t="s">
         <v>58</v>
       </c>
@@ -62828,7 +62588,7 @@
       <c r="AC62" s="114"/>
       <c r="AD62" s="114"/>
     </row>
-    <row r="63" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="114" t="s">
         <v>1641</v>
       </c>
@@ -62866,7 +62626,7 @@
       <c r="AC63" s="114"/>
       <c r="AD63" s="114"/>
     </row>
-    <row r="64" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="114" t="s">
         <v>1643</v>
       </c>
@@ -62904,7 +62664,7 @@
       <c r="AC64" s="114"/>
       <c r="AD64" s="114"/>
     </row>
-    <row r="65" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="114" t="s">
         <v>1645</v>
       </c>
@@ -62942,7 +62702,7 @@
       <c r="AC65" s="114"/>
       <c r="AD65" s="114"/>
     </row>
-    <row r="66" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="114" t="s">
         <v>1645</v>
       </c>
@@ -62980,7 +62740,7 @@
       <c r="AC66" s="114"/>
       <c r="AD66" s="114"/>
     </row>
-    <row r="67" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="114" t="s">
         <v>1645</v>
       </c>
@@ -63018,7 +62778,7 @@
       <c r="AC67" s="114"/>
       <c r="AD67" s="114"/>
     </row>
-    <row r="68" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="114" t="s">
         <v>29</v>
       </c>
@@ -63056,7 +62816,7 @@
       <c r="AC68" s="114"/>
       <c r="AD68" s="114"/>
     </row>
-    <row r="69" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="114" t="s">
         <v>1651</v>
       </c>
@@ -63090,7 +62850,7 @@
       <c r="AC69" s="114"/>
       <c r="AD69" s="114"/>
     </row>
-    <row r="70" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="114" t="s">
         <v>50</v>
       </c>
@@ -63126,7 +62886,7 @@
       <c r="AC70" s="114"/>
       <c r="AD70" s="114"/>
     </row>
-    <row r="71" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="114" t="s">
         <v>1652</v>
       </c>
@@ -63164,7 +62924,7 @@
       <c r="AC71" s="114"/>
       <c r="AD71" s="114"/>
     </row>
-    <row r="72" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="114" t="s">
         <v>1651</v>
       </c>
@@ -63198,7 +62958,7 @@
       <c r="AC72" s="114"/>
       <c r="AD72" s="114"/>
     </row>
-    <row r="73" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="114" t="s">
         <v>1655</v>
       </c>
@@ -63234,7 +62994,7 @@
       <c r="AC73" s="114"/>
       <c r="AD73" s="114"/>
     </row>
-    <row r="74" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="116" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="114" t="s">
         <v>1652</v>
       </c>
@@ -63274,7 +63034,7 @@
       <c r="AC74" s="114"/>
       <c r="AD74" s="114"/>
     </row>
-    <row r="75" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="114" t="s">
         <v>1651</v>
       </c>
@@ -63308,7 +63068,7 @@
       <c r="AC75" s="114"/>
       <c r="AD75" s="114"/>
     </row>
-    <row r="76" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="114" t="s">
         <v>1655</v>
       </c>
@@ -63344,7 +63104,7 @@
       <c r="AC76" s="114"/>
       <c r="AD76" s="114"/>
     </row>
-    <row r="77" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="114" t="s">
         <v>1657</v>
       </c>
@@ -63380,7 +63140,7 @@
       <c r="AC77" s="114"/>
       <c r="AD77" s="114"/>
     </row>
-    <row r="78" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="114" t="s">
         <v>1658</v>
       </c>
@@ -63416,7 +63176,7 @@
       <c r="AC78" s="114"/>
       <c r="AD78" s="114"/>
     </row>
-    <row r="79" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="114" t="s">
         <v>1659</v>
       </c>
@@ -63454,7 +63214,7 @@
       <c r="AC79" s="114"/>
       <c r="AD79" s="114"/>
     </row>
-    <row r="80" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="114" t="s">
         <v>1661</v>
       </c>
@@ -63492,7 +63252,7 @@
       <c r="AC80" s="114"/>
       <c r="AD80" s="114"/>
     </row>
-    <row r="81" s="116" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="116" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="114" t="s">
         <v>1663</v>
       </c>
@@ -63530,7 +63290,7 @@
       <c r="AC81" s="114"/>
       <c r="AD81" s="114"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="119" t="s">
         <v>1665</v>
       </c>
@@ -63564,7 +63324,7 @@
       <c r="AC83" s="122"/>
       <c r="AD83" s="122"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="123" t="s">
         <v>1666</v>
       </c>
@@ -63578,7 +63338,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="124" t="s">
         <v>1670</v>
       </c>
@@ -63592,7 +63352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="124" t="s">
         <v>1673</v>
       </c>
@@ -63607,7 +63367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="124" t="s">
         <v>1675</v>
       </c>
@@ -63621,7 +63381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="124" t="s">
         <v>1678</v>
       </c>
@@ -63635,7 +63395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="124" t="s">
         <v>1681</v>
       </c>
@@ -63649,7 +63409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="124" t="s">
         <v>1684</v>
       </c>
@@ -63663,7 +63423,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="124" t="s">
         <v>1688</v>
       </c>
@@ -63677,7 +63437,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="124" t="s">
         <v>1691</v>
       </c>
@@ -63691,7 +63451,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="124" t="s">
         <v>1694</v>
       </c>
@@ -63705,7 +63465,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="124" t="s">
         <v>1697</v>
       </c>
@@ -63719,7 +63479,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="124" t="s">
         <v>1700</v>
       </c>
@@ -63733,7 +63493,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="124" t="s">
         <v>1703</v>
       </c>
@@ -63747,7 +63507,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="124" t="s">
         <v>1706</v>
       </c>
@@ -63761,7 +63521,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="124" t="s">
         <v>1709</v>
       </c>
@@ -63775,13 +63535,13 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="121"/>
       <c r="B100" s="121"/>
       <c r="C100" s="120"/>
       <c r="D100" s="121"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="121"/>
       <c r="B101" s="123" t="s">
         <v>1713</v>
@@ -63791,7 +63551,7 @@
       </c>
       <c r="D101" s="121"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="121"/>
       <c r="B102" s="126" t="s">
         <v>1714</v>
@@ -63801,7 +63561,7 @@
       </c>
       <c r="D102" s="121"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="121"/>
       <c r="B103" s="127" t="s">
         <v>1715</v>
@@ -63811,7 +63571,7 @@
       </c>
       <c r="D103" s="121"/>
     </row>
-    <row r="104" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="121"/>
       <c r="B104" s="127" t="s">
         <v>1716</v>
@@ -63821,7 +63581,7 @@
       </c>
       <c r="D104" s="121"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="121"/>
       <c r="B105" s="127" t="s">
         <v>1718</v>
@@ -63831,7 +63591,7 @@
       </c>
       <c r="D105" s="121"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="121"/>
       <c r="B106" s="127" t="s">
         <v>1720</v>
@@ -63841,7 +63601,7 @@
       </c>
       <c r="D106" s="121"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="121"/>
       <c r="B107" s="127" t="s">
         <v>1722</v>
@@ -63851,7 +63611,7 @@
       </c>
       <c r="D107" s="121"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="121"/>
       <c r="B108" s="127" t="s">
         <v>1724</v>
@@ -63861,7 +63621,7 @@
       </c>
       <c r="D108" s="121"/>
     </row>
-    <row r="109" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="121"/>
       <c r="B109" s="127" t="s">
         <v>1726</v>
@@ -63871,7 +63631,7 @@
       </c>
       <c r="D109" s="121"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="121"/>
       <c r="B110" s="127" t="s">
         <v>1728</v>
@@ -63881,7 +63641,7 @@
       </c>
       <c r="D110" s="121"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="121"/>
       <c r="B111" s="127" t="s">
         <v>1730</v>
@@ -63891,7 +63651,7 @@
       </c>
       <c r="D111" s="121"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="121"/>
       <c r="B112" s="127" t="s">
         <v>1731</v>
@@ -63901,7 +63661,7 @@
       </c>
       <c r="D112" s="121"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="121"/>
       <c r="B113" s="127" t="s">
         <v>1733</v>
@@ -63911,7 +63671,7 @@
       </c>
       <c r="D113" s="121"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="121"/>
       <c r="B114" s="127" t="s">
         <v>1735</v>
@@ -63921,7 +63681,7 @@
       </c>
       <c r="D114" s="121"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="121"/>
       <c r="B115" s="127" t="s">
         <v>1737</v>
@@ -63931,7 +63691,7 @@
       </c>
       <c r="D115" s="121"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="121"/>
       <c r="B116" s="127" t="s">
         <v>1739</v>
@@ -63941,7 +63701,7 @@
       </c>
       <c r="D116" s="121"/>
     </row>
-    <row r="117" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="121"/>
       <c r="B117" s="127" t="s">
         <v>1741</v>
@@ -63951,7 +63711,7 @@
       </c>
       <c r="D117" s="121"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="121"/>
       <c r="B118" s="127" t="s">
         <v>1743</v>
@@ -63961,7 +63721,7 @@
       </c>
       <c r="D118" s="121"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="121"/>
       <c r="B119" s="127" t="s">
         <v>1745</v>
@@ -63971,7 +63731,7 @@
       </c>
       <c r="D119" s="121"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="121"/>
       <c r="B120" s="127" t="s">
         <v>1747</v>
@@ -63981,7 +63741,7 @@
       </c>
       <c r="D120" s="121"/>
     </row>
-    <row r="121" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="121"/>
       <c r="B121" s="127" t="s">
         <v>1749</v>
@@ -63991,7 +63751,7 @@
       </c>
       <c r="D121" s="121"/>
     </row>
-    <row r="122" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="121"/>
       <c r="B122" s="127" t="s">
         <v>1751</v>
@@ -64001,7 +63761,7 @@
       </c>
       <c r="D122" s="121"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="121"/>
       <c r="B123" s="127" t="s">
         <v>1753</v>
@@ -64011,7 +63771,7 @@
       </c>
       <c r="D123" s="121"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="121"/>
       <c r="B124" s="127" t="s">
         <v>1755</v>
@@ -64021,7 +63781,7 @@
       </c>
       <c r="D124" s="121"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="121"/>
       <c r="B125" s="127" t="s">
         <v>1757</v>
@@ -64031,7 +63791,7 @@
       </c>
       <c r="D125" s="121"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="121"/>
       <c r="B126" s="127" t="s">
         <v>1759</v>
@@ -64041,7 +63801,7 @@
       </c>
       <c r="D126" s="121"/>
     </row>
-    <row r="127" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="121"/>
       <c r="B127" s="127" t="s">
         <v>1761</v>
@@ -64051,7 +63811,7 @@
       </c>
       <c r="D127" s="121"/>
     </row>
-    <row r="128" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="121"/>
       <c r="B128" s="127" t="s">
         <v>1763</v>
@@ -64061,7 +63821,7 @@
       </c>
       <c r="D128" s="121"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="121"/>
       <c r="B129" s="128" t="s">
         <v>1765</v>
@@ -64071,7 +63831,7 @@
       </c>
       <c r="D129" s="121"/>
     </row>
-    <row r="130" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="121"/>
       <c r="B130" s="128" t="s">
         <v>1767</v>
@@ -64081,7 +63841,7 @@
       </c>
       <c r="D130" s="121"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="121"/>
       <c r="B131" s="128" t="s">
         <v>1768</v>
@@ -64091,7 +63851,7 @@
       </c>
       <c r="D131" s="121"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="121"/>
       <c r="B132" s="128" t="s">
         <v>1769</v>
@@ -64101,7 +63861,7 @@
       </c>
       <c r="D132" s="121"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="121"/>
       <c r="B133" s="128" t="s">
         <v>1770</v>
@@ -64111,7 +63871,7 @@
       </c>
       <c r="D133" s="121"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="121"/>
       <c r="B134" s="128" t="s">
         <v>1771</v>
@@ -64121,7 +63881,7 @@
       </c>
       <c r="D134" s="121"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="121"/>
       <c r="B135" s="128" t="s">
         <v>1772</v>
@@ -64131,7 +63891,7 @@
       </c>
       <c r="D135" s="121"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="121"/>
       <c r="B136" s="128" t="s">
         <v>1774</v>
@@ -64141,7 +63901,7 @@
       </c>
       <c r="D136" s="121"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="121"/>
       <c r="B137" s="128" t="s">
         <v>1775</v>
@@ -64151,7 +63911,7 @@
       </c>
       <c r="D137" s="121"/>
     </row>
-    <row r="138" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="121"/>
       <c r="B138" s="128" t="s">
         <v>1777</v>
@@ -64161,7 +63921,7 @@
       </c>
       <c r="D138" s="121"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="121"/>
       <c r="B139" s="128" t="s">
         <v>1779</v>
@@ -64171,7 +63931,7 @@
       </c>
       <c r="D139" s="121"/>
     </row>
-    <row r="140" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="121"/>
       <c r="B140" s="128" t="s">
         <v>1781</v>
@@ -64181,7 +63941,7 @@
       </c>
       <c r="D140" s="121"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="121"/>
       <c r="B141" s="128" t="s">
         <v>1783</v>
@@ -64191,7 +63951,7 @@
       </c>
       <c r="D141" s="121"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="121"/>
       <c r="B142" s="128" t="s">
         <v>1785</v>
@@ -64201,7 +63961,7 @@
       </c>
       <c r="D142" s="121"/>
     </row>
-    <row r="143" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="121"/>
       <c r="B143" s="128" t="s">
         <v>1787</v>
@@ -64211,7 +63971,7 @@
       </c>
       <c r="D143" s="121"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="121"/>
       <c r="B144" s="128" t="s">
         <v>1789</v>
@@ -64221,7 +63981,7 @@
       </c>
       <c r="D144" s="121"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="121"/>
       <c r="B145" s="128" t="s">
         <v>1791</v>
@@ -64231,7 +63991,7 @@
       </c>
       <c r="D145" s="121"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="121"/>
       <c r="B146" s="128" t="s">
         <v>1793</v>
@@ -64241,7 +64001,7 @@
       </c>
       <c r="D146" s="121"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="121"/>
       <c r="B147" s="128" t="s">
         <v>1795</v>
@@ -64251,7 +64011,7 @@
       </c>
       <c r="D147" s="121"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="121"/>
       <c r="B148" s="128" t="s">
         <v>1797</v>
@@ -64261,7 +64021,7 @@
       </c>
       <c r="D148" s="121"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="121"/>
       <c r="B149" s="128" t="s">
         <v>1799</v>
@@ -64271,7 +64031,7 @@
       </c>
       <c r="D149" s="121"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="121"/>
       <c r="B150" s="128" t="s">
         <v>1801</v>
@@ -64281,7 +64041,7 @@
       </c>
       <c r="D150" s="121"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="121"/>
       <c r="B151" s="128" t="s">
         <v>1803</v>
@@ -64291,7 +64051,7 @@
       </c>
       <c r="D151" s="121"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="121"/>
       <c r="B152" s="128" t="s">
         <v>1805</v>
@@ -64301,7 +64061,7 @@
       </c>
       <c r="D152" s="121"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="121"/>
       <c r="B153" s="128" t="s">
         <v>1807</v>
@@ -64311,7 +64071,7 @@
       </c>
       <c r="D153" s="121"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="121"/>
       <c r="B154" s="128" t="s">
         <v>1809</v>
@@ -64696,7 +64456,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="36"/>
   </cols>
@@ -64707,7 +64467,7 @@
       </c>
       <c r="B1" s="104"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
     </row>
@@ -64740,7 +64500,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="6" s="109" customFormat="true" ht="204.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="109" customFormat="true" ht="185.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="108" t="s">
         <v>1813</v>
       </c>
@@ -64791,7 +64551,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="36"/>
   </cols>
@@ -64806,7 +64566,7 @@
       <c r="E1" s="131"/>
       <c r="F1" s="131"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="131"/>
@@ -64824,7 +64584,7 @@
       <c r="E3" s="131"/>
       <c r="F3" s="131"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="131"/>
       <c r="B4" s="131"/>
       <c r="C4" s="131"/>
@@ -64853,7 +64613,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" s="109" customFormat="true" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="109" customFormat="true" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="108" t="s">
         <v>1821</v>
       </c>
@@ -64873,7 +64633,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="134"/>
       <c r="B7" s="134"/>
       <c r="C7" s="134"/>
@@ -64881,7 +64641,7 @@
       <c r="E7" s="134"/>
       <c r="F7" s="134"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="134"/>
       <c r="B8" s="134"/>
       <c r="C8" s="134"/>
